--- a/data/trans_dic/P2A_enfcro_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_enfcro_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>64,24; 69,88</t>
+          <t>64,0; 69,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>73,77; 79,37</t>
+          <t>74,29; 79,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>67,6; 74,23</t>
+          <t>67,86; 74,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>92,07; 96,32</t>
+          <t>91,73; 96,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>76,57; 80,97</t>
+          <t>76,73; 81,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,95; 88,68</t>
+          <t>85,18; 88,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>82,5; 86,96</t>
+          <t>82,77; 87,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>94,35; 96,92</t>
+          <t>94,32; 96,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>71,94; 75,56</t>
+          <t>71,88; 75,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>81,11; 84,24</t>
+          <t>81,13; 84,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>77,04; 80,98</t>
+          <t>77,0; 81,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>93,95; 96,3</t>
+          <t>94,05; 96,15</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,26; 40,11</t>
+          <t>35,32; 40,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,9; 48,73</t>
+          <t>44,43; 48,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,85; 49,14</t>
+          <t>44,82; 49,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>95,63; 97,48</t>
+          <t>95,4; 97,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,54; 53,49</t>
+          <t>48,49; 53,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,53; 61,41</t>
+          <t>56,68; 61,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>53,27; 57,83</t>
+          <t>53,2; 57,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>92,82; 96,45</t>
+          <t>93,02; 96,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>42,44; 45,85</t>
+          <t>42,21; 45,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>50,64; 54,09</t>
+          <t>50,6; 53,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>49,43; 52,56</t>
+          <t>49,41; 52,66</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>94,6; 96,66</t>
+          <t>94,66; 96,69</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>34,54; 42,76</t>
+          <t>34,3; 42,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,32; 52,24</t>
+          <t>42,33; 52,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>35,8; 43,94</t>
+          <t>35,33; 44,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>97,67; 99,5</t>
+          <t>97,72; 99,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,53; 56,2</t>
+          <t>46,38; 55,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,76; 58,33</t>
+          <t>48,32; 58,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>43,02; 51,61</t>
+          <t>42,97; 51,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>97,09; 98,9</t>
+          <t>96,98; 98,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>41,04; 47,76</t>
+          <t>41,28; 47,62</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>46,66; 53,96</t>
+          <t>47,24; 53,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>40,52; 46,93</t>
+          <t>40,48; 46,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>97,85; 99,03</t>
+          <t>97,79; 99,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,43; 48,88</t>
+          <t>45,35; 48,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,57; 57,14</t>
+          <t>53,49; 57,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,4; 52,9</t>
+          <t>49,39; 52,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,94; 97,43</t>
+          <t>95,96; 97,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>60,35; 63,68</t>
+          <t>60,37; 63,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,13; 70,35</t>
+          <t>67,13; 70,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>60,83; 64,25</t>
+          <t>60,79; 64,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>94,42; 96,71</t>
+          <t>94,16; 96,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>53,39; 55,91</t>
+          <t>53,39; 55,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>61,02; 63,38</t>
+          <t>60,88; 63,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>55,64; 58,1</t>
+          <t>55,82; 58,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,51; 96,83</t>
+          <t>95,48; 96,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_enfcro_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_enfcro_R-Estudios-trans_dic.xlsx
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>67,18%</t>
+          <t>62,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>76,87%</t>
+          <t>75,47%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>71,2%</t>
+          <t>69,45%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>94,46%</t>
+          <t>53,78%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>78,98%</t>
+          <t>75,94%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>87,0%</t>
+          <t>85,7%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>84,96%</t>
+          <t>84,02%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>95,81%</t>
+          <t>63,87%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>73,8%</t>
+          <t>70,17%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>82,73%</t>
+          <t>81,38%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>79,02%</t>
+          <t>77,74%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>95,28%</t>
+          <t>59,78%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>64,0; 69,9</t>
+          <t>59,56; 65,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>74,29; 79,44</t>
+          <t>72,8; 78,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>67,86; 74,55</t>
+          <t>65,93; 72,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>91,73; 96,22</t>
+          <t>49,74; 57,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>76,73; 81,17</t>
+          <t>73,42; 78,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,18; 88,79</t>
+          <t>83,66; 87,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>82,77; 87,19</t>
+          <t>81,75; 86,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>94,32; 96,83</t>
+          <t>61,06; 66,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>71,88; 75,71</t>
+          <t>68,19; 72,1</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>81,13; 84,39</t>
+          <t>79,68; 83,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>77,0; 81,05</t>
+          <t>75,64; 79,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>94,05; 96,15</t>
+          <t>57,59; 62,17</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>37,55%</t>
+          <t>35,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>46,56%</t>
+          <t>45,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>46,91%</t>
+          <t>45,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>51,1%</t>
+          <t>50,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>58,9%</t>
+          <t>57,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>55,46%</t>
+          <t>54,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>95,27%</t>
+          <t>39,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>44,11%</t>
+          <t>42,74%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>52,39%</t>
+          <t>51,14%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>51,09%</t>
+          <t>49,7%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>95,95%</t>
+          <t>33,69%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,32; 40,04</t>
+          <t>33,27; 37,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,43; 48,96</t>
+          <t>42,96; 47,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,82; 49,35</t>
+          <t>43,4; 47,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>95,4; 97,46</t>
+          <t>20,12; 32,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,49; 53,51</t>
+          <t>47,84; 53,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,68; 61,56</t>
+          <t>55,39; 60,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>53,2; 57,81</t>
+          <t>51,82; 56,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>93,02; 96,46</t>
+          <t>32,3; 59,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>42,21; 45,78</t>
+          <t>40,81; 44,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>50,6; 53,93</t>
+          <t>49,42; 52,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>49,41; 52,66</t>
+          <t>48,03; 51,24</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>94,66; 96,69</t>
+          <t>28,78; 42,63</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>38,4%</t>
+          <t>37,47%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>47,09%</t>
+          <t>45,54%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>38,92%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>28,14%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>51,55%</t>
+          <t>50,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>53,59%</t>
+          <t>52,11%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>47,16%</t>
+          <t>46,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>98,19%</t>
+          <t>30,16%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>44,5%</t>
+          <t>43,36%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>50,26%</t>
+          <t>48,74%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>43,44%</t>
+          <t>42,87%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>29,16%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>34,3; 42,79</t>
+          <t>33,34; 41,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,33; 52,22</t>
+          <t>40,9; 50,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>35,33; 44,05</t>
+          <t>34,83; 43,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>97,72; 99,55</t>
+          <t>24,66; 32,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>46,38; 55,81</t>
+          <t>45,21; 54,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,32; 58,34</t>
+          <t>46,54; 56,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>42,97; 51,5</t>
+          <t>42,51; 51,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>96,98; 98,94</t>
+          <t>26,96; 33,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>41,28; 47,62</t>
+          <t>40,24; 46,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>47,24; 53,89</t>
+          <t>45,6; 52,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>40,48; 46,99</t>
+          <t>39,84; 46,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>97,79; 99,03</t>
+          <t>26,65; 31,65</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>47,02%</t>
+          <t>44,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>55,27%</t>
+          <t>53,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>51,17%</t>
+          <t>49,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>31,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>62,01%</t>
+          <t>60,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>68,79%</t>
+          <t>67,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>62,48%</t>
+          <t>61,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>42,75%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>54,63%</t>
+          <t>52,5%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>62,16%</t>
+          <t>60,84%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>56,95%</t>
+          <t>55,71%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>96,32%</t>
+          <t>37,52%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,35; 48,82</t>
+          <t>42,75; 46,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,49; 57,0</t>
+          <t>52,05; 55,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,39; 52,92</t>
+          <t>48,01; 51,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,96; 97,46</t>
+          <t>24,83; 34,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>60,37; 63,58</t>
+          <t>58,68; 61,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,13; 70,41</t>
+          <t>65,9; 69,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>60,79; 64,22</t>
+          <t>59,76; 63,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>94,16; 96,62</t>
+          <t>38,47; 55,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>53,39; 55,93</t>
+          <t>51,31; 53,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>60,88; 63,28</t>
+          <t>59,53; 62,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>55,82; 58,19</t>
+          <t>54,53; 56,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,48; 96,85</t>
+          <t>33,9; 42,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_enfcro_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_enfcro_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>59,56; 65,72</t>
+          <t>59,95; 66,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>72,8; 78,16</t>
+          <t>72,33; 78,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>65,93; 72,76</t>
+          <t>65,89; 72,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>49,74; 57,93</t>
+          <t>49,6; 58,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>73,42; 78,12</t>
+          <t>73,49; 78,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>83,66; 87,54</t>
+          <t>83,63; 87,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>81,75; 86,34</t>
+          <t>81,62; 86,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>61,06; 66,53</t>
+          <t>61,13; 66,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>68,19; 72,1</t>
+          <t>68,25; 72,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>79,68; 83,09</t>
+          <t>79,71; 82,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>75,64; 79,61</t>
+          <t>75,7; 79,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>57,59; 62,17</t>
+          <t>57,66; 62,3</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,27; 37,94</t>
+          <t>33,2; 38,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,96; 47,5</t>
+          <t>43,12; 47,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,4; 47,83</t>
+          <t>43,42; 47,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,12; 32,43</t>
+          <t>19,85; 32,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,84; 53,04</t>
+          <t>48,05; 52,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>55,39; 60,31</t>
+          <t>55,3; 60,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>51,82; 56,45</t>
+          <t>51,87; 56,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32,3; 59,32</t>
+          <t>32,31; 56,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40,81; 44,45</t>
+          <t>40,7; 44,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>49,42; 52,66</t>
+          <t>49,41; 52,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>48,03; 51,24</t>
+          <t>48,12; 51,25</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>28,78; 42,63</t>
+          <t>29,05; 43,52</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,34; 41,73</t>
+          <t>33,43; 41,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>40,9; 50,76</t>
+          <t>40,77; 50,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,83; 43,21</t>
+          <t>34,54; 43,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,66; 32,32</t>
+          <t>24,46; 32,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>45,21; 54,71</t>
+          <t>45,44; 54,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,54; 56,68</t>
+          <t>47,15; 56,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>42,51; 51,14</t>
+          <t>42,06; 50,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,96; 33,05</t>
+          <t>26,71; 33,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>40,24; 46,63</t>
+          <t>40,27; 46,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>45,6; 52,25</t>
+          <t>45,16; 52,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>39,84; 46,4</t>
+          <t>39,95; 45,93</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,65; 31,65</t>
+          <t>26,75; 31,5</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,75; 46,14</t>
+          <t>42,58; 46,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>52,05; 55,57</t>
+          <t>52,0; 55,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>48,01; 51,48</t>
+          <t>48,12; 51,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,83; 34,82</t>
+          <t>24,39; 35,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>58,68; 61,95</t>
+          <t>58,74; 62,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>65,9; 69,21</t>
+          <t>65,83; 69,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>59,76; 63,22</t>
+          <t>59,68; 63,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,47; 55,22</t>
+          <t>38,49; 53,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,31; 53,76</t>
+          <t>51,27; 53,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>59,53; 62,01</t>
+          <t>59,59; 62,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>54,53; 56,89</t>
+          <t>54,45; 56,93</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>33,9; 42,86</t>
+          <t>33,84; 43,36</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con enfermedades crónicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>979</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1071</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>736</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>948</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1644</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1749</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1276</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1337</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>647956</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>735526</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>523930</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>276915</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>998729</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1146449</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>835711</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>482580</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1646684</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1881975</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1359641</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>759495</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>618505; 682290</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>704918; 761630</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>497071; 546601</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>255418; 299445</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>966529; 1028598</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1118826; 1170695</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>811824; 856990</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>461850; 501213</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1601758; 1692406</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1843273; 1918691</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1323912; 1394322</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>732546; 791548</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>835</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>889</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>935</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1090</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1378</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1770</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1895</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1760</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>599249</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>887561</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>943782</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>645229</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>803018</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1015591</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1076189</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>880361</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1402267</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1903152</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2019971</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1525590</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>562139; 644454</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>846920; 934917</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>901657; 989034</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>454661; 742277</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>762825; 840127</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>972088; 1057069</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1031359; 1120392</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>723050; 1267091</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1335469; 1453407</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1838830; 1963113</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1955855; 2083115</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1315341; 1970595</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>206597</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>219128</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>212865</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>181938</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>239025</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>238976</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>256988</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>199190</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>445621</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>458104</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>469854</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>381128</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>184355; 230200</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>196195; 243438</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>188873; 235969</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>158163; 207765</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>216502; 261768</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>216246; 260526</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>230976; 279840</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>176424; 219385</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>413948; 481628</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>424413; 489958</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>437872; 503417</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>349655; 411754</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1452</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1712</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1620</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1261</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2217</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2345</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3446</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3929</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3601</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3606</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1453801</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1842216</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1680578</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1104081</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2040770</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2401015</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2168888</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1562131</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3494572</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4243231</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3849466</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2666213</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1395018; 1518207</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1778158; 1895592</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1625187; 1738202</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>842040; 1215615</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1984896; 2100982</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2339685; 2453726</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2107943; 2226847</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1406286; 1946674</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3412677; 3580049</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>4155919; 4327726</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>3762017; 3933488</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2404899; 3080944</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>